--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/s?k=Mini+portable+projector&amp;crid=3NPDVVZSMT4DD&amp;sprefix=mini+portable%2Caps%2C380&amp;ref=nb_sb_noss_2#</t>
+          <t>https://www.amazon.com/Electric-Projector-Bluetooth-Portable-Compatible/dp/B0CTC6J4H2/ref=sr_1_1?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Customers frequently viewed</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Electric Focus Mini Projector with 5G WiFi and Bluetooth, Support FHD 1080P Smart Video Projector, 12000L Portable Movie Projector with Auto Keystone Compatible with iOS/Android/TV Stick/HDMI/PS5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$36.27</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -472,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Magcubic-Projector-Bluetooth-Soundbase-180%C2%B0Rotatable/dp/B0DYMNJKSQ/ref=sr_1_10?crid=3NPDVVZSMT4DD&amp;dib=eyJ2IjoiMSJ9.Sb-n_lO3IJMlEaWu2CEd6yxKZjbtC43ISllRUxp0rxyVFVSUVw1gHPM35o094jQN9ZarASzeN5Ng7JIrFFEu8Db3GNIXPdjxBjQ3s9M8kaODwXCoWEyN7VbOW5VL4LcMha7dtTX1A0OYH3uvV7NDcaREyYFFhR-PnkA-pm9VqBQv72YndhPJRlncHC02lr9ZD_N4ooCtEdi7xctmxT_aQNtfKkM2klmP5a4THDHv8cI.9D_HVyFSUBzMascHQVzmANeHBcGhIvqpPZjOb8UqdS4&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753857632&amp;sprefix=mini+portable%2Caps%2C380&amp;sr=8-10</t>
+          <t>https://www.amazon.com/Projector-Meer-Portable-Entertainment-Interfaces/dp/B01HRFBOWI/ref=sr_1_2?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mini Projector 4K support with WiFi 6 and Bluetooth 5.4, 5w Soundbase Speaker, Auto Vertical Keystone 180°Rotatable Portable Proyector for Home Bedroom Outdoor HY300Pro+</t>
+          <t>Mini Projector, Meer Portable Pico Full Color LED LCD Video Projector for Children Present, Video TV Movie, Party Game, Outdoor Entertainment with HDMI USB AV Interfaces and Remote Control</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$59.39</t>
+          <t>$18.61</t>
         </is>
       </c>
     </row>
@@ -492,15 +496,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxOTcyNzcyMzg1NjIyMDg6MTc1Mzg1NzYzMjpzcF9tdGY6MzAwODQxMjA1OTA1NzAyOjowOjo&amp;url=%2FProjector-Bluetooth-Projectors-Rotatable-Compatible%2Fdp%2FB0FB8QMWJ6%2Fref%3Dsr_1_17_sspa%3Fcrid%3D3NPDVVZSMT4DD%26dib%3DeyJ2IjoiMSJ9.Sb-n_lO3IJMlEaWu2CEd6yxKZjbtC43ISllRUxp0rxyVFVSUVw1gHPM35o094jQN9ZarASzeN5Ng7JIrFFEu8Db3GNIXPdjxBjQ3s9M8kaODwXCoWEyN7VbOW5VL4LcMha7dtTX1A0OYH3uvV7NDcaREyYFFhR-PnkA-pm9VqBQv72YndhPJRlncHC02lr9ZD_N4ooCtEdi7xctmxT_aQNtfKkM2klmP5a4THDHv8cI.9D_HVyFSUBzMascHQVzmANeHBcGhIvqpPZjOb8UqdS4%26dib_tag%3Dse%26keywords%3DMini%2Bportable%2Bprojector%26qid%3D1753857632%26sprefix%3Dmini%2Bportable%252Caps%252C380%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/TransarJect-Portable-WiFi-Bluetooth-Projector/dp/B0DDL2T43W/ref=sr_1_3?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Projector with WiFi and Bluetooth, Mini Projector, 4K 1080P Support Portable Wireless Movie Projectors 220° Rotatable 130'' Screen Auto Keystone Compatible with HDMI/iPhone/TV Stick for Bedroom Indoor</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Mini Projector - 4K 1080P Supported Portable WiFi and Bluetooth Movie Projector, 270°Adjustable Stand Outdoor Home Theater Star Projector with Ambient Light for Phone TV Stick Laptop</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$67.99</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -508,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Projector-VISSPL-Portable-Outdoor-Compatible/dp/B0CD2BS3QX/ref=sr_1_20?crid=3NPDVVZSMT4DD&amp;dib=eyJ2IjoiMSJ9.Sb-n_lO3IJMlEaWu2CEd6yxKZjbtC43ISllRUxp0rxyVFVSUVw1gHPM35o094jQN9ZarASzeN5Ng7JIrFFEu8Db3GNIXPdjxBjQ3s9M8kaODwXCoWEyN7VbOW5VL4LcMha7dtTX1A0OYH3uvV7NDcaREyYFFhR-PnkA-pm9VqBQv72YndhPJRlncHC02lr9ZD_N4ooCtEdi7xctmxT_aQNtfKkM2klmP5a4THDHv8cI.9D_HVyFSUBzMascHQVzmANeHBcGhIvqpPZjOb8UqdS4&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753857632&amp;sprefix=mini+portable%2Caps%2C380&amp;sr=8-20</t>
+          <t>https://www.amazon.com/NEBULA-Projector-Officially-Licensed-Playtime/dp/B0CHW11C8H/ref=sr_1_4?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mini Projector, VISSPL Full HD 1080P Video Projector, Portable Outdoor Projector with Tripod, Kids Gift, Home Theater Movie Phone Projector Compatible with Android/iOS/Windows/TV Stick/HDMI/USB</t>
+          <t>NEBULA Capsule 3 GTV Outdoor Projector, Netflix Officially Licensed, 1080P Smart Mini Projector with Wi-Fi, 2.5 hrs Battery, 120-Inch Display, Dolby Digital, Ultra Portable for Any Space</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$47.99</t>
+          <t>$403.66</t>
         </is>
       </c>
     </row>
@@ -528,15 +536,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxOTcyNzcyMzg1NjIyMDg6MTc1Mzg1NzYzMjpzcF9idGY6MzAwODYxMDMxNTYyNjAyOjowOjo&amp;url=%2FProjector-WiFi-Bluetooth-Mini-Projector-Portable-Outdoor-Movie%2Fdp%2FB0F5VRVST4%2Fref%3Dsr_1_22_sspa%3Fcrid%3D3NPDVVZSMT4DD%26dib%3DeyJ2IjoiMSJ9.Sb-n_lO3IJMlEaWu2CEd6yxKZjbtC43ISllRUxp0rxyVFVSUVw1gHPM35o094jQN9ZarASzeN5Ng7JIrFFEu8Db3GNIXPdjxBjQ3s9M8kaODwXCoWEyN7VbOW5VL4LcMha7dtTX1A0OYH3uvV7NDcaREyYFFhR-PnkA-pm9VqBQv72YndhPJRlncHC02lr9ZD_N4ooCtEdi7xctmxT_aQNtfKkM2klmP5a4THDHv8cI.9D_HVyFSUBzMascHQVzmANeHBcGhIvqpPZjOb8UqdS4%26dib_tag%3Dse%26keywords%3DMini%2Bportable%2Bprojector%26qid%3D1753857632%26sprefix%3Dmini%2Bportable%252Caps%252C380%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Projector-SMONET-Portable-Supported-Compatibale/dp/B08C73J573/ref=sr_1_5?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Projector with WiFi and Bluetooth, Mini-Projector: [For Netflix &amp; AI Auto-Setup System &amp; Live TV&amp; 1000ANSI &amp; 800+Built-inApps &amp;Browser],Lisowod L03Pro 1080P Smart Portable-Outdoor-Movie Projector</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Movie Projector, SMONET 1080P HD Projector 7500L Home Projector Video TV Projector Mini Portable LED Projector Outdoor Indoor Wall Compatible with TV Stick Laptops PC PS5 HDMI USB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$81.64</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -544,15 +556,3459 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/s?k=Mini+portable+projector&amp;crid=3NPDVVZSMT4DD&amp;sprefix=mini+portable%2Caps%2C380&amp;ref=nb_sb_noss_2#</t>
+          <t>https://www.amazon.com/Miroir-M190-Mini-Pro-Projector/dp/B095L1TQG2/ref=sr_1_7?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Picks from Amazon Influencers</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Miroir M190 Mini Projector, Battery-Powered, 1080p input supported, USB - C Video and Charge, Built-in kickstand</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$208.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ASUS-ZenBeam-Portable-Wireless-Projector/dp/B08Z31KBQY/ref=sr_1_9?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ASUS ZenBeam E2 Mini LED Wireless Portable Projector - Mini Projector for Smartphone mirroring, Built-in Battery &amp; Speakers for Outdoor Travel Projector, USB &amp; HDMI Movie Projector</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$217.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Core-Innovations-Projector-Bluetooth-Conduction/dp/B0DJ1P552M/ref=sr_1_11?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Core Innovations Home Theater Bundle with Projector, 120" Screen, and Two Mini Bluetooth Wireless Bone Conduction Instant Speakers, Sea Blue</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$43.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/NEBULA-Triple-Projector-Nebulamaster-Lumens/dp/B0DYV2CGTK/ref=sr_1_12?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NEBULA X1 Triple Laser 4K Projector, Nebulamaster, 3500 ANSI Lumens, 56000:1 Contrast, 40W Stereo Sound, 0.9-1.5 Optical Zoom, Smart AI, Dolby Vision, 300" Screen, Built-In Micro Gimbal, GTV, Portable</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$2,999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/BenQ-GV50-Projector-Supported-Projection/dp/B0DL9HH3VR/ref=sr_1_13?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BenQ GV50 | Laser Portable Projector, 500 Lms, Native 1080p, 4K Supported, Ceiling Projection, Tripod Base, Rotating Angle, Google TV, Certified Netflix, WiFi &amp; Bluetooth, Deep Woofer Built in speaker</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/RCA-Portable-Projector-Entertainment-Built/dp/B09LBDY6Z4/ref=sr_1_15?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RCA - RPJ060 Portable Projector Home Theater Entertainment System, Long Lasting Battery - 2.5 Hours per Charge - Outdoor, Rechargeable, Speakers - Enjoy without any Cable on the go - Phone/Stick/PC</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$59.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Miroir-L500S-Wireless-Projector-Streaming/dp/B0B9CHTLQF/ref=sr_1_16?dib=eyJ2IjoiMSJ9.yb_CCfiDilKPn5vDuSBckiUdv2HjMqlMyAjOyQMuEliM9VbxceqW7cHgilnVpq4KXdXqWZf48iIOaW0Pf32VEUhYJJ6mC8TvdZEuBU2khb0JuGzyJoX6hZigD-idRdNP_G90JrgQKkemYV2_Y7YxL8EcwEcxM562gna5gwt9HKMj2Qn3gtr4EXaZVJ0XZZpC0vaHQ6pgWM6RWjIX8N_eiIOtL-n6e35mUNFBDrFF76I.9IavA9eLrW-XfpbyKuj1jSsbb9IWhZi7l9yZwvM-mfM&amp;dib_tag=se&amp;keywords=Mini+portable+projector&amp;qid=1753858980&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Miroir L500S 1080p Smart Streaming Mini Projector, 90-Inch Screen, Movie Projector, 5G WIFI and Bluetooth</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$103.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Apple-iPhone-Pacific-Carrier-Subscription/dp/B08L5PHJ2Y/ref=sr_1_10?dib=eyJ2IjoiMSJ9.aEUGIN9rJ2W6x-m3Lcy2PQX2nOxJrcFNUO_mQFMeTvVML4o8q3nNxS5D_5UbjDuZy5_KDskVgC-zfTow1oCZyGHF5QaR2zCsRigtVeXrbh0uATcOldfS3T9H3MFumHoqx5Upb3B31IO6Q6wXDU-ySu6-dGF1h0WNgbptwWHIhcuuHr1wxxRwslvJe-3u6PPyxBF981J591vNSo7jiw6YQa7PCDyax59aQYTiqTlpMGg.vTObBC6bHgJhKOfMUOrqJFDuMq1n1NMq3gXqifFVXQ0&amp;dib_tag=se&amp;keywords=Iphone&amp;qid=1753858987&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$64.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Apple-iPhone-64GB-Unlocked-Silver/dp/B0D2ZFH253/ref=sr_1_13?dib=eyJ2IjoiMSJ9.aEUGIN9rJ2W6x-m3Lcy2PQX2nOxJrcFNUO_mQFMeTvVML4o8q3nNxS5D_5UbjDuZy5_KDskVgC-zfTow1oCZyGHF5QaR2zCsRigtVeXrbh0uATcOldfS3T9H3MFumHoqx5Upb3B31IO6Q6wXDU-ySu6-dGF1h0WNgbptwWHIhcuuHr1wxxRwslvJe-3u6PPyxBF981J591vNSo7jiw6YQa7PCDyax59aQYTiqTlpMGg.vTObBC6bHgJhKOfMUOrqJFDuMq1n1NMq3gXqifFVXQ0&amp;dib_tag=se&amp;keywords=Iphone&amp;qid=1753858987&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 64GB Unlocked - Silver</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$108.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/CyberPowerPC-i9-14900KF-GeForce-Windows-GXiVR8080A39/dp/B0DW48QHFY/ref=sr_1_1?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CyberPowerPC Gamer Xtreme VR Gaming PC, Intel Core i9-14900KF 3.2GHz, GeForce RTX 5070 12GB, 32GB DDR5, 2TB PCIe 4.0 SSD, WiFi Ready &amp; Windows 11 Home (GXiVR8080A39)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$1,979.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Skytech-Gaming-Desktop-5-5GHz-NVIDIA/dp/B0F5B2BT2S/ref=sr_1_2?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Skytech King 95 Gaming PC Desktop, Ryzen 7 9700X 3.8 GHz (5.5GHz Turbo), NVIDIA RTX 5070 12GB, 1TB Gen4 NVMe SSD, 32GB DDR5 RAM 6000 RGB, 850W Gold PSU, 360mm ARGB AIO, Wi-Fi, Win 11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAAV-Prebuilt-Gaming-Desktop-Bluetooth/dp/B0D9PMRZW1/ref=sr_1_3?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SAAV X1 Prebuilt Gaming PC Desktop with i5 3.4GHz CPU, 16GB RAM, GEFORCE GTX 750 GDDR5 GPU, 512GB NVME, WiFi 6, Bluetooth, Win 10, Mouse Keyboard, PC Gaming Computer Desktop, 1-Year Warranty</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/LXZ-Desktop-Computer-7-5700G-3-9GHz/dp/B0DZB5KYM2/ref=sr_1_4?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LXZ Desktop PC Computer AMD Ryzen 7-5700G 8 core 3.9GHz, 16G DDR4 RAM, 512GB NVME SSD, Tower Computer with Power Supply 400W for Home and Office (White)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$459.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Skytech-Gaming-Desktop-5-4GHz-NVIDIA/dp/B0F213BSDQ/ref=sr_1_5?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Skytech Gaming King 95 Desktop PC, Ryzen 7 7700X 4.5 GHz (5.4GHz), NVIDIA RTX 5070 Ti 16GB, 2TB Gen4 NVMe SSD, 32GB DDR5 RAM 6000 RGB, 850W Gold ATX 3 PSU, 360mm ARGB AIO, Wi-Fi, Win 11</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$2,249.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Cooler-Master-NR2-Pro-Mini/dp/B0F3QW811G/ref=sr_1_6?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cooler Master NR2 Pro Mini ITX – AMD RYZEN 7 7800X3D 4.2 GHz (5.0 GHz Turbo) | Gigabyte RX 9070 XT 16GB &amp; B650I AORUS ULTRA | 32GB DDR5 6000MHz | 2TB Gen4 M.2 | WiFi | Windows 11 | 280mm AIO Gaming PC</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$2,106.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Cooler-Master-Sneaker-Gaming-Desktop/dp/B0CY5SHYDL/ref=sr_1_7?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cooler Master Sneaker X Gaming PC Desktop – Intel i5 14600K – NVIDIA GeForce RTX 4060 TI – 32GB DDR5 – 2TB M.2 NVMe SSD – WiFi – Windows 11</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$1,193.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Skytech-Shadow-Gaming-Desktop-Feature/dp/B0CW8YM8VG/ref=sr_1_8?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Skytech Shadow Gaming PC Desktop, Intel i5 13400F 2.5 GHz (4.6GHz Turbo Boost), NVIDIA RTX 4060 8GB GDDR6, 1TB SSD, 32GB DDR5 RAM 5200 RGB, 650W Gold PSU, Wi-Fi, Win 11 Home, AR Feature on Mobile</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HP-i5-12450H-GeForce-Backlit-Touchpad/dp/B0D841QS9D/ref=sr_1_9?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>HP Victus 15.6 i5 Gaming Laptop, 15.6" FHD 1920*1080 144Hz, Intel Core i5-12450H, NVIDIA GeForce RTX 3050, 16GB RAM, 1TB SSD, Backlit KB, Touchpad, SD Card Reader, Webcam, HDMI, Wi-Fi 6, W11 H, Blue</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$627.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Bgears-b-Voguish-Tempered-Support-Motherboard/dp/B07T4W3BMH/ref=sr_1_10?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bgears b-Voguish Gaming PC Case with Tempered Glass panels, USB3.0, Support E-ATX, ATX, mATX, ITX. (Fans are sold separately)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$45.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Lenovo-Legion-Pro-7i-GamePass/dp/B0DXXMLXVD/ref=sr_1_11?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lenovo Legion Pro 7i – Gaming Laptop - Intel® Core™ Ultra 9 275HX – 16" 2.5K WQXGA OLED Display – 240Hz Refresh Rate – GeForce RTX™ 5070 Ti GPU – 32 GB Memory – 1 TB Storage – 3-month PC GamePass</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$2,199.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Fachixy-Headset-Microphone-Nintendo-Computer/dp/B0BR5H276G/ref=sr_1_12?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FC100 Gaming Headset with Microphone for PS4, PS5, Switch, Xbox, PC, Mac, Gamer Headset with RGB Light, Computer Headphones with Mic</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$17.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ASUS-TUF-B650-PLUS-Motherboard-Ethernet/dp/B0BHN7GGBQ/ref=sr_1_14?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ASUS TUF GAMING B650-PLUS WIFI AMD B650 AM5 Ryzen™ Desktop 9000 8000 and 7000 ATX motherboard, 14 power stages, PCIe® 5.0 M.2 , DDR5 memory, WiFi 6 and 2.5 Gb Ethernet, USB4® support Aura Sync</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$139.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Cooler-Master-NR2-Pro-Mini/dp/B0F1DYC7CM/ref=sr_1_15?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cooler Master NR2 Pro Mini ITX – Intel i7-14700F 2.1GHz (5.4GHz Turbo) | Gigabyte RX 7800 XT 16GB &amp; B760I AORUS PRO | 32GB DDR5 6000MHz | 1TB Gen4 M.2 | WiFi | Windows 11 | 280mm AIO Gaming PC</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$1,482.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Razer-BlackShark-V2-Gaming-Headset/dp/B086PKMZ21/ref=sr_1_16?dib=eyJ2IjoiMSJ9.P1WSuCCsrkVUVS9iOAhCC5vbB_4A0W7T60JxhEtNqlltUBJE4gvJ3u1I48A1iEi9_KOgC152ccCNtpww4g97SiJ66pZHtG85jgafKZyJTAaO0K00xj1SLIlcZc9p2l-ojFoLStXmZB_ZJwyuRCiwMyCODgn0kDdE7RG-A7lYUbPyYvaD_3grfinEX3GlJMOiyUp9RLO7hoQqFCJ4uWDIHN34B-RdyiFivelWe4Zm-gc.MYaHc21DtDwkjq2vX9UviEfD9ifTuKuMwADDy3Tk-ME&amp;dib_tag=se&amp;keywords=PC+Gamer&amp;qid=1753858995&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Razer BlackShark V2 X Gaming Headset: 7.1 Surround Sound - 50mm Drivers - Memory Foam Cushion - For PC, PS4, PS5, Switch - 3.5mm Audio Jack - Black</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$33.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Xbox-Elite-Wireless-Controller-Gaming-Console/dp/B0BTTSYCY7/ref=sr_1_1?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Xbox Elite Series 2 Core Wireless Gaming Controller – Blue Series X|S, One, Windows PC, Android, and iOS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PowerA-Wired-Controller-Xbox-gamepad-x/dp/B08F4444HM/ref=sr_1_2?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PowerA Wired Controller For Xbox Series X|S - Black, Gamepad, Video Game Controller Works with Xbox One</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$21.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-Controller-Robot-VGSION-Battery/dp/B08XPY3K9Q/ref=sr_1_3?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Microsoft Xbox Series S or X Wireless Controller Robot White plus VGSION battery</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$69.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Microsoft-Xbox-WL-Controller-Gaming-Console/dp/B09BY1FTF7/ref=sr_1_4?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Xbox Wireless Controller Shock Blue - Wireless - Bluetooth - USB Series X, Series S, One, PC, Android, iOS, Tablet - Shock Blue</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$75.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Xbox-Wireless-Controller-Daystrike-Special-Windows/dp/B08ZNJBQKQ/ref=sr_1_5?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Xbox Wireless Controller – Daystrike Camo Special Edition for Xbox Series X|S, Xbox One, and Windows 10 Devices</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$61.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Xbox-Wireless-Controller-Pulse-Red-Windows-Devices/dp/B0859XT328/ref=sr_1_8?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Xbox Core Wireless Gaming Controller – Pulse Red Series X|S, One, Windows PC, Android, and iOS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$49.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Microsoft-Xbox-WL-Controller-Gaming-Console/dp/B088GJR4B9/ref=sr_1_9?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Xbox Core Wireless Gaming Controller – Carbon Black Series X|S, One, Windows PC, Android, and iOS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$56.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/High-Performance-Wireless-Controller-Licensed-Xbox-X/dp/B0CJVQFZ1S/ref=sr_1_10?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Turtle Beach Stealth Ultra High-Performance Wireless Gaming Controller Licensed for Xbox Series X|S, Xbox One, Windows PC, Android - LED Dashboard, Dock, RGB Lighting, 30-Hr Battery, Bluetooth, Black</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$113.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Controller-Licensed-Windows-Atomic-Carbon-Desktop/dp/B0BZT8FKK8/ref=sr_1_11?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PDP Wired Xbox Gaming Controller: Gamepad Licensed for Xbox Series X|S, Xbox One, Windows PC, Audio Controls, 8ft Cable, 3.5mm jack, Mappable Buttons/Triggers, Companion App: Atomic Carbon Grey/Orange</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$29.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-Controller-Xbox-One-Gaming-Console/dp/B0BXQ5RMNV/ref=sr_1_13?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Xbox Microsoft Wireless Controller - Velocity Green</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PowerA-Advantage-Wired-Controller-Gaming-Console/dp/B0C8MCF7BS/ref=sr_1_14?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PowerA Advantage Wired Controller for Xbox Series X|S - Blue, Xbox Controller with Detachable 10ft USB-C Cable, Mappable Buttons, Trigger Locks and Rumble Motors, Officially Licensed for Xbox</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$24.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/GameSir-Controller-Xbox-One-Windows-Joysticks/dp/B0D8KXMCTC/ref=sr_1_15?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GameSir G7 SE Wired Controller for Xbox Series X|S, Xbox One &amp; Windows 10/11, Plug and Play Gaming Gamepad with Hall Effect Joysticks/Hall Trigger, 3.5mm Audio Jack (Orange)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$40.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PowerA-Enhanced-Wired-Controller-Gaming-Console/dp/B09SVN1YLY/ref=sr_1_16?crid=2KUNJ43ZF17CI&amp;dib=eyJ2IjoiMSJ9.c_OxiCNrre02zmUclkFrhS8LO9AeKc8hqaJZVB2KKNwB75Y_04h9pcKD5KLiyqVIuhJTklpkZo7C9vtYDoGXGTp9R9JjdOXI7i41Sr0OBXBXX2i9b8qGTUT6Y28ruRaN4glpxDgN4t1XJXGivUWPXSm62K8CLir8UlGwABl59s3XpICxrNkaErVZsP48CGkJUq1qbe0ZAR2FAHnCfYPZIJWdBwBvNX9c32t1Sc927bw.WhBJiYxkPQpf2GSLKx_EttFj89ST1jUuTKUTJuge7W0&amp;dib_tag=se&amp;keywords=Xbox+Controller&amp;qid=1753859002&amp;sprefix=x%2Caps%2C356&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PowerA Enhanced Wired Controller for Xbox Series X|S - Lavender Swirl, gamepad, wired video game controllerDetachable 10ft USB-C Cable, Mappable Buttons and Rumble Motors, Officially Licensed for Xbox</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$4.99 delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PlayStation-DualSense%C2%AE-Wireless-Controller-White-5/dp/B0CQKLS4RP/ref=sr_1_1?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PlayStation DualSense® Wireless Controller - White</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$59.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ModdedZone-Controller-compatible-Play-station-PlayStation-5/dp/B07CHZZ6XT/ref=sr_1_3?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MODDEDZONE Wireless Controller for PS5 with Exclusive and Unique Designs Compatible with PlayStation 5 - The Ideal Christmas Gift for Gaming Enthusiasts - Expertly Crafted in USA Black Mask</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$139.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/MODDEDZONE-Custom-controller-PS5-OEM-Quality-Playstation/dp/B0CVC98LMS/ref=sr_1_4?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MODDEDZONE M Series Custom controller for PS5 - Wireless, OEM-Quality Custom Designs for Playstation 5 Controller- Diverse &amp; Unique Styles for Enhanced Gaming (Brooklyn Grey)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-Controller-Compatible-DualSense-Exclusive/dp/B096BPB53R/ref=sr_1_5?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Custom Wireless UN-MODDED PRO Controller compatible with PS5 Exclusive Unique Design (420 Black)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$129.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/MODDEDZONE-Wireless-Controller-Compatible-Gaming-Console/dp/B0DKG7QPT4/ref=sr_1_6?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MODDEDZONE 420 Black M Series Custom Wireless Controller Compatible with PS5 - Exclusive and Unique Design| Customized in the USA|</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$139.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PDP-Victrix-Wireless-Controller-Playstation-5/dp/B0B9LDPXBF/ref=sr_1_7?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PDP Victrix Pro BFG Wireless Gaming Controller for Playstation 5 / PS5, PS4, PC, Modular Esports Gamepad, Remappable Buttons, Customizable Triggers/Paddles/D-Pad/Fightpad, PC App, Black</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$147.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Razer-Quick-Charging-Stand-PlayStation-5/dp/B09KYGQFHV/ref=sr_1_8?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Razer Quick Charging Stand for PlayStation 5: - Curved Cradle Design - Matches PS5 DualSense Wireless Controller - One-Handed Navigation - USB Powered - Black (Controller Sold Separately)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>$31.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/MODDEDZONE-controller-Performance-App-Enabled-PlayStation-5/dp/B0C8WNX8MT/ref=sr_1_9?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MODDEDZONE EDGE Smart Anti Recoil Rapid fire Custom Modded controller compatible with PS5 &amp; PC | Enhance Performance and Dominate with App-Enabled Precision (White)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>$329.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wolverine-Wireless-Gaming-Controller-PlayStation-5/dp/B0BQ1PDR4R/ref=sr_1_11?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Razer Wolverine V2 Pro Wireless Gaming Controller for PlayStation 5 / PS5, PC: Mecha-Tactile Action Buttons - 8-Way Microswitch D-Pad - HyperTrigger - 6 Remappable Buttons - Chroma RGB   - Black</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>$149.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-Controller-compatible-Exclusive-PlayStation-5/dp/B09V38YLPY/ref=sr_1_12?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MODDEDZONE Wireless Controller for PS5 with Exclusive and Unique Designs Compatible with PlayStation 5 and PC - The Ideal Christmas Gift for Gaming Enthusiasts - Expertly Crafted in USA(Soft Red)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$73.90 delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PlayStation-DualSense-Wireless-Controller-%E3%83%A2%E3%83%B3%E3%82%B9%E3%82%BF%E3%83%BC%E3%83%8F%E3%83%B3%E3%82%BF%E3%83%BC%E3%83%AF%E3%82%A4%E3%83%AB%E3%82%BA-5/dp/B0DL9MMSC5/ref=sr_1_13?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PlayStation 5 DualSense Wireless Controller - Monster Hunter Wilds Limited Edition ワイヤレスコントローラー モンスターハンターワイルズ リミテッドエディション'</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$4.99 delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Controller-Remappable-Interchangeable-Thumbsticks-Triggers-Tactical/dp/B0CMQXYP33/ref=sr_1_14?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Custom Modded Controller for PS5 with Anti Recoil Mode, Remappable Paddles, Interchangeable Thumbsticks, Hair Triggers,Tactical Buttons - Wireless Joystick for PlayStation 5 with Unique Soft Red</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>$229.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ModdedZone-Controller-Play-station-Compatible-PlayStation-5/dp/B09MG2XMGQ/ref=sr_1_15?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MODDEDZONE Wireless Controller for PS5 with Exclusive and Unique Designs Compatible with PlayStation 5 and PC - The Ideal Christmas Gift for Gaming Enthusiasts - Expertly Crafted in USA(Soft Green)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>$129.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Controller-Compatible-DualSense-Custom-Shooter/dp/B08QRRFNBF/ref=sr_1_16?crid=CXX3HUXS2NK2&amp;dib=eyJ2IjoiMSJ9.sPHt6VSHPXYWU2DvjjDucgjNfnpCaPo1NzgXzO9kWNmIyfaM8tqD-opqNyMeWoD_XgGypw7NMNjrVU0oWjB39qbwTLoJ0VZjvEOQsf0D2HxuTZr6shdLp8_nvpV7zyzxKzyEWOZSlG5lFCqA5m7PhBXGh948ifRhLha02gMnFq9gVEwWCQp0zEHCERuBNuqB5-t4VckEhjpZBi6tlNeJJsP5mj9vCy4bQPhxK7YiY7s.ri2VL5OLuAGE_GkpmygjIrpTzXuN6OW7OwbLvR-dzsQ&amp;dib_tag=se&amp;keywords=PS5+Controller&amp;qid=1753859010&amp;sprefix=ps%2Caps%2C153&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MODDEDZONE Black/GOld Custom Rapid Fire, Anti Recoil, Macros MODDED Wireless Controller for PS5 &amp; PC - Unique Designs, Smart Mods for ps5 controller controlled by the APP. Best for FPS Games</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>$179.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Renogy-Monocrystalline-Solar-Compact-Design/dp/B07JXYTFF7/ref=sr_1_1?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Renogy 2PCS Solar Panels 100 Watt 12 Volt, High-Efficiency Monocrystalline PV Module Power Charger for RV Marine Rooftop Farm Battery and Other Off-Grid Applications, 2-Pack 100W</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>$138.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Renogy-200-Watt-Monocrystalline-Controller/dp/B07RFQVB9M/ref=sr_1_2?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Renogy 200 Watt 12 Volt Portable Solar Panel with Waterproof 20A Charger Controller, Foldable 100W Solar Panel Suitcase with Adjustable Kickstand, Solar Charger for Power Station RV Camping Off Grid</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>$204.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Efficiency-Waterproof-Adjustable-Kickstands-Alignment/dp/B0DJ12TWX7/ref=sr_1_3?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>800W Portable Solar Panel, 2pcs 400W Portable Solar Panels 39V, 23% Efficiency Foldable IP67 Waterproof Adjustable Kickstands, Off-Grid Power Smart Sunlight Alignment via Suncast, for Camping, RV</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>$769.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Portable-Foldable-Efficiency-Dustproof-Backyard/dp/B0B7KY3D15/ref=sr_1_4?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>EF ECOFLOW 110W Portable Solar Panel, Foldable with Carry Case, High 23% Efficiency, IP68 Water &amp; Dustproof Design for Camping, RVs, or Backyard Use</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>$289.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/EF-ECOFLOW-Conversion-Efficiency-Adjustable/dp/B0D3VCQV6W/ref=sr_1_5?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>EF ECOFLOW 160 Watt Portable Solar Panel for Power Stations, 25% High Conversion Efficiency Foldable Solar Panel with Adjustable Kickstand IP68 Waterproof for Outdoor Camping RV, NextGen Version</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>$349.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Flexible-Greenmagic-Waterproof-Lightweight-Monocrystalline/dp/B0DZVW9Y6H/ref=sr_1_6?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>400W Flexible Solar Panel Greenmagic 2 PCS 200W Solar Panels IP68 Waterproof 20V Ultra Thin Lightweight Charger for RV Marine Boat Cabin Van Car Uneven Surfaces Monocrystalline Bendable</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SunJack-20W-Portable-Solar-Charger/dp/B00UK56AR2/ref=sr_1_7?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SunJack – 25 Watt Foldable Solar Panel, ETFE Monocrystalline Portable Solar Panel with USB-C and USB-A, IP67 Waterproof Solar Panels for Camping, Backpacking, Hiking and Travel</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>$72.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TOPENS-TSQ20W-20-Watt-Monocrystalline-Equipment/dp/B09PH859S5/ref=sr_1_8?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TOPENS TSQ20W Solar Panel 20-Watt 24V Monocrystalline Solar Panel Kit, for Gate Opener, Boat, Yacht, RV, Caravan, Golf Car, Street Lamp, Garden Light and Farm Equipment</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>$129.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Stealth-Cam-Solar-Power-Panel/dp/B0BWFM39YS/ref=sr_1_9?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Stealth Cam Durable Sol-Pak Solar Battery Pack, 12V Solar Power Panel, Rechargeable Battery &amp; 10ft Insulated Cable, Compatible with All Wireless/Cellular Trail Cameras - 5000 mAh</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>$50.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TOPENS-TSP30W-Monocrystalline-Controller-Equipment/dp/B07ZTBRVXL/ref=sr_1_11?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TOPENS TSP30W Solar Panel 30-Watt 24V Monocrystalline Solar Panel Battery Charging Controller Kit, for Gate Opener, Boat, Yacht, RV, Caravan, Golf car, Street lamp, Garden Light and Farm Equipment</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/BLUETTI-Portable-EB3A-Recharge-Generator/dp/B09WW3CTF4/ref=sr_1_13?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BLUETTI Solar Generator EB3A, 268Wh LiFePO4 Battery Backup w/ 2 600W (1200W Surge) AC Outlets, Recharge from 0-80% in 30 Min., LFP Backup for Outdoor Camping, Trip, Power Outage</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>$269.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Renogy-Adjustable-Solar-Panel-Brackets/dp/B07CSKFWK7/ref=sr_1_14?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Renogy 28in Adjustable Solar Panel Mount Brackets, with Foldable Tilt Legs on Any Flat Surface for RV, Roof, Boat, Any Off-Grid Systems</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>$27.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ACOPOWER-20W-Mono-Solar-Panel/dp/B01G53TUHO/ref=sr_1_15?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ACOPOWER 20W Mono Solar Panel,Waterproof Built-in Blocking Diode Small Solar Panels– Efficient 12V Battery Charger for RVs, Boats, and Off-Grid Applications</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>$39.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Portable-Solar-Generator-60W-Panel/dp/B0FF3BVW22/ref=sr_1_16?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portable Power Station 330W, 227Wh Solar Powered Generator with Fast PD Output with 60W Solar Panel, 120V Pure Sine Wave AC Outlet Charging Lithium Battery for Outdoor Camping Travel Home Blackout</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/CROS-Portable-200W-Generator-Emergency/dp/B0BGJ6Y7M9/ref=sr_1_17?crid=28TOHN1Q56CSS&amp;dib=eyJ2IjoiMSJ9.fMoJi4gyclMW0AhQYf-DwlCtIMg8JYOklqSobks6E-o25J9hmj51QkGEY5k296Ugj26Y5i_pmULhcJiz1SFjoySdRM92588Id-9n4Np7DIcGzwoY6H3psan3FbzeGLysmYxo500rdX7FIa1H3np3_Prj3vNLtyfXzn0NvsaB3i3nbum5q1rlJki-88KReg25JiUkDHqxzA0vdX0WRMOcYqfA1-ijZkiHr2aH4PwA094.RoZM29LvDRp9vSmGNdGXK3T2C6-AK4StsCxNovU7wlY&amp;dib_tag=se&amp;keywords=Solar+panel&amp;qid=1753859018&amp;sprefix=sol%2Caps%2C227&amp;sr=8-17</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CROS Portable Solar Panel 200W 18V Foldable Solar Charger Kit Solar Generator for Phones RV Laptops Van Camping Off-Grid Outdoor Emergency Power Outage</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>$161.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/VIZIO-40-inch-1080p-Virtual-Built/dp/B0CXG3HMX1/ref=sr_1_1?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>VIZIO 40-inch Full HD 1080p Smart TV with DTS Virtual: X, Alexa Compatibility, Google Cast Built-in, Bluetooth Headphone Capable, (VFD40M-08 New)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>$126.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-40-Inch-Object-Tracking-Security/dp/B0DXN1CFFR/ref=sr_1_2?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Samsung 40-Inch Class Full HD F6000 Smart TV (2025 Model) HDR, Object Tracking Sound Lite, Knox Security, One UI Tizen, Smart TV</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>$171.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Hisense-40-Inch-Class-1080p-40A4NF/dp/B0DYR3D7QQ/ref=sr_1_3?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Hisense 40-Inch Class A4 Series FHD 1080p Smart Fire TV (40A4NF, 2025 Model) - DTS Virtual: X, Slim Bezel Design, Alexa Built in</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>$199.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/VIZIO-50-inch-Premium-Compatibility-M50QXM-K01/dp/B09VCZCR1W/ref=sr_1_4?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>VIZIO 50-inch Quantum Pro 4K 120Hz QLED HDR10+ Smart TV with Dolby Vision, Active Full Array, 240Hz @ 1080p PC Gaming, WiFi 6E, Apple AirPlay, Chromecast Built-in, M50QXM-K01, 2023 Model</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>$369.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-85-Inch-Processor-Technology-Xcelerator/dp/B0DXN369G2/ref=sr_1_5?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Samsung 85-Inch Class Neo QLED QN70F 4K Mini LED Smart TV (2025 Model) NQ4 AI Gen2 Processor, Quantum Matrix Technology Slim, Motion Xcelerator 144Hz, Samsung Vision AI, Alexa Built-in</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>$1,647.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/introducing-amazon-fire-tv-55-inch-omni-qled-series-smart-tv/dp/B09N6ZRH6C/ref=sr_1_6?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Amazon Fire TV 55" Omni QLED Series 4K UHD smart TV, Dolby Vision IQ, Fire TV Ambient Experience, local dimming, hands-free with Alexa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>$368.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/VIZIO-Compatibility-Chromecast-Bluetooth-VHD32M-08/dp/B0CVBL2J34/ref=sr_1_7?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>VIZIO 32-inch HD Smart TV 720p LED w/Alexa Compatibility, Google Cast Built-in, Bluetooth Headphone Capable (VHD32M-08, New)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>$97.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/LG-55-Inch-Processor-AI-Powered-OLED55C4PUA/dp/B0CVRDK4P6/ref=sr_1_8?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LG 55-Inch Class OLED evo C4 Series Smart TV 4K Processor Flat Screen with Magic Remote AI-Powered with Alexa Built-in (OLED55C4PUA, 2024)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>$975.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-65-Inch-Wireless-Connect-Processor/dp/B0DXNB3QB2/ref=sr_1_9?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Samsung 65-Inch Class The Frame Pro LS03FW 4K Neo QLED Mini LED Smart TV (2025 Model) Modern Frame Design with Wireless One Connect, NQ4 AI Gen3 Processor, Art Mode, Samsung Vision AI, Alexa Built-in</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>$1,857.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/VIZIO-D24fM-K01-TBD/dp/B0B286BGSL/ref=sr_1_10?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>VIZIO 24-inch D-Series FHD LED Smart TV w/Bluetooth Headphone Capable, AMD FreeSync &amp; Alexa Compatibility, D24fM-K01, 2023 Model</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>$117.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-65-Inch-Processor-Upscaling-Xcelerator/dp/B0DXMJGQWC/ref=sr_1_11?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Samsung 65-Inch Class OLED S90F 4K Smart TV (2025 Model) NQ4 AI Gen3 Processor, 4K AI Upscaling Pro, OLED HDR +, Motion Xcelerator 144Hz, Samsung Vision AI, Alexa Built-in</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>$1,995.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TCL-32S350R-Compatible-Compatibility-Television/dp/B0C1J1FS2C/ref=sr_1_13?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>TCL 32-Inch Class S3 1080p LED Smart TV with Roku TV (32S350R, 2023 Model), Compatible with Alexa, Google Assistant, and Apple HomeKit Compatibility, Streaming FHD Television,Black</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>$124.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sony-Inch-Ultra-A90K-Playstation%C2%AE/dp/B09R8SDM9F/ref=sr_1_14?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sony 48 Inch 4K Ultra HD TV A90K Series: BRAVIA XR OLED Smart Google TV with Dolby Vision HDR and Exclusive Features for The Playstation- 5 XR48A90K- Latest Model,Black</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>$999.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sony-W830K-Google-Assistant-2022-Model/dp/B09R8WTG8B/ref=sr_1_15?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sony 32 Inch 720p HD LED HDR TV W830K Series with Google TV and Google Assistant-2022 Model, Black</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>$287.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TCL-75Q651G-Accelerator-Streaming-Television/dp/B0CZLZZ6BB/ref=sr_1_16?dib=eyJ2IjoiMSJ9.yr-Es4zznyseLIhHVn3aeNzbngrpOEbAKfsXUyqUJgfEC6VoXbDTTABqoK8iQm6M4-9rg-qW3pbTZl_l02GwY9wa6okXopaII0Ge_YInEn-sbVMPLhwbeuFRHxQI5qOfwfAsbljBFcheIHWjP75bZtNRGdHckhXLCicYRQtVUKGGCvo2oEZ2XnekJrRwKgTSIxxRUmTmMUnI5NXdv_OOQB5xwrbrz5RVjSR31SeCnRc.UZNDPY2Sh9wgd5N55e_UF1u7pAPumWnyyIYa6bCYyFA&amp;dib_tag=se&amp;keywords=TV&amp;qid=1753859026&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TCL 75-Inch Q65 QLED 4K UHD Smart TV with Google TV (75Q651G, 2024 Model) Dolby Vision, Dolby Atmos, HDR Pro+, Game Accelerator Enhanced Gaming, Voice Remote, Works with Alexa, Streaming Television</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>$749.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SMUG-Adjustable-Ergonomic-Motorized-Workstation/dp/B0C8MBN3DP/ref=sr_1_1?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Standing Desk, Adjustable Height Electric Sit Stand Up Down Computer Table, 40x24 Inch Ergonomic Rising Modern Lift Motorized Gaming Desktop Workstation for Work Home Office, White</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>$82.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Standing-Adjustable-Headphone-Organizer/dp/B0DF7D64HL/ref=sr_1_2?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Marsail Standing Desk Adjustable Height Stand up Home Office Desk, 48x24 Inch Electric Standing Computer Desk, with 4 Memory Presets, Headphone Hook, Cable Organizer, Black</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>$80.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Bestier-Outlets-Charging-Computer-Assemble/dp/B0D1TRMTS7/ref=sr_1_3?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Bestier 52 inch Gaming Desk with Power Outlets and USB Charging Ports, Sturdy Computer Desk with LED Lights and Monitor Stand, Computer Table for Home Office, Easy to Assemble, Carbon Fiber Black</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>$57.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TOPSKY-Computer-Bookshelf-Grommet-Industrial/dp/B07RGLW1CW/ref=sr_1_4?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>TOPSKY Computer Desk with Bookshelf/Metal Hole Cable Cover 1.18" Thick Desk (55", Rustic Brown)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>$99.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Furinno-Simplistic-Frame-Computer-Regular/dp/B0BWMZ75F8/ref=sr_1_5?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Furinno Simplistic A Frame Computer Desk, Regular, White</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>$34.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Furinno-Computer-Bookshelf-16086R1GYW-BK/dp/B07K31KZTL/ref=sr_1_6?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Furinno Abbott Corner Computer Desk with Bookshelf, French Oak Grey/Black</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>$55.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Bestier-Outlets-Charging-Computer-Monitor/dp/B0D1V681FJ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bestier 52 Inch Gaming Desk with Power Outlets and USB Charging Ports, LED Small Computer Desk with Monitor Stand, Home Office Desk with Cup Holder &amp; Headset Hooks, Desk for Office, Carbon Fiber Pink</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HLDIRECT-Computer-Ergonomic-Workstations-Headphone/dp/B0BMXB13TR/ref=sr_1_8?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HLDIRECT 63 Inch Gaming Desk with LED Lights Carbon Fibre Surface Gaming Table Large Computer Desk Ergonomic Home Office Desks Z Shaped PC Gamer Workstations with Cup Holder &amp; Headphone Hook Black</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>$89.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Casaottima-Computer-Office-Writing-Headphone/dp/B0D47GFNWS/ref=sr_1_9?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Casaottima 32 Inch Small Computer Desk for Home Office, Study Writing Table for Small Spaces, Simple Modern Desk with Headphone Hooks, Rustic Brown</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>$33.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HOMCOM-Computer-Writing-Storage-Shelves/dp/B0DSMMGH9L/ref=sr_1_10?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>HOMCOM Home Office Desk, Computer Desk with A Frame for Small Spaces, Writing Table with Drawer and Storage Shelves, White</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>$39.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TOPSKY-Large-Computer-Office-Rustic/dp/B083HDTB3H/ref=sr_1_11?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>TOPSKY 59" Big Large Computer Office Desk 1.88" Thickness Desktop (Rustic Brown)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/WALKINGDESK-Reversible-Adjustable-Workstation-Ergonomic/dp/B0FD9V1R5T/ref=sr_1_12?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>75x61 Inches Reversible L Shaped Standing Desk Height Adjustable with Cup Holder, Electric Corner Computer Workstation for Home Office, Ergonomic Sit Stand up Gaming Desk, Black Walnut</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Flexispot-Electric-Standing-Adjustable-Whole-Piece/dp/B08LB33XVJ/ref=sr_1_13?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>FLEXISPOT EN1 Whole-Piece Standing Desk 48 x 30 Inches Electric Height Adjustable Desks for Home Office Stand Up Desk (Silver Frame + 48 in White Top, 2 Packages)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Casaottima-Computer-Writing-Workstation-Assemble/dp/B0D7HHWK7D/ref=sr_1_14?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Casaottima 47 inch L Shaped Gaming Desk, Corner Desk Gaming Table for Home Office, Computer Desk Sturdy Writing Workstation for Small Space, Easy to Assemble, Black</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>$43.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Adjustable-Workstations-Headphone-Organizer/dp/B0DCNR2M2R/ref=sr_1_15?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Marsail Electric Standing Desk, 40x24 Inch Adjustable Height Home Office Gaming Desk with 4 Memory Presets, Storage Bag, Stand-Up Desk for Computer Workstations. Headphone Hook,Cable Organizer</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>$85.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Lufeiya-Computer-Shelves-Bedroom-L-Shaped/dp/B0DDCH7S9W/ref=sr_1_16?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Lufeiya L Shaped Computer Desk with Power Outlet Shelves, 47 Inch Corner Desk for Home Office Bedroom, L-Shaped Study Writing Working PC Desks, Black</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>$79.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/VASAGLE-Office-Workstation-Industrial-31-5-Inch/dp/B0C7V8ZQYC/ref=sr_1_18?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-18</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>VASAGLE Computer Desk, Gaming Desk, Home Office Desk, for Small Spaces, 19.7 x 31.5 x 29.5 Inches, Modern Style, Metal Frame, Maple White ULWD038W44</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>$30.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Furinno-11192EX-BK-Efficient-Computer/dp/B0056NQV40/ref=sr_1_19?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-19</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Furinno Efficient Home Laptop Notebook Computer Desk with Square Shelves, Espresso/Black</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>$29.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/JOY-worker-Adjustable-Controller-Workstation/dp/B0CL6F4H1B/ref=sr_1_20?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-20</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>JOY worker Small Electric Standing Desk, 35" x 20" Whole Piece Height Adjustable Desk with Memory Controller, White Sit to Stand Desk Workstation for Home Office</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>$134.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/AmazonBasics-Puresoft-PU-Padded-Mid-Back-Computer/dp/B081H3Y5NW/ref=sr_1_21?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-21</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Amazon Basics Classic Puresoft PU Padded Mid-Back Height Adjustable Office Computer Desk Chair with Armrest, 26"D x 23.75"W x 42"H, Black</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>$69.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Realspace%C2%AE-Halton-Computer-Desk-Black/dp/B0BT3DQPYX/ref=sr_1_22?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-22</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Realspace® Halton 48" W Computer Desk, Black</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Need-Executive-Computer-Workstation-Furniture/dp/B0CGT814J4/ref=sr_1_23?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-23</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Need 70.8 Inch Executive Office Desk, Large Stylish Computer Desk, Simple Study Writing Desk, Workstation Business Furniture for Home Office, White</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>$115.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/LITTLE-TREE-X-Large-Executive-Computer/dp/B0BYSBCF92/ref=sr_1_24?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-24</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>LITTLE TREE 70.8 Inch X-Large Executive Computer Office Desk, Grey+Black</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>$156.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SIMPLIHOME-Century-Workstation-Furniture-Drawerss/dp/B01N4BU8CH/ref=sr_1_25?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-25</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SIMPLIHOME Harper Desk - 60-Inch Wide Solid Hardwood Writing Desk in Walnut Brown, Mid-Century Modern Home Office Computer Table for Workspace or Study with 2 Drawers and Flip-Down Keyboard Tray</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>$569.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Realspace%C2%AE-Magellan-L-Shape-Computer-Espresso/dp/B0CQG8W47V/ref=sr_1_26?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-26</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Realspace® Magellan 59"W L-Shape Corner Computer Desk, Espresso</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>$163.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/WALKINGDESK-Electric-Standing-Adjustable-Ergonomic/dp/B0FDB1VD5Q/ref=sr_1_27?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-27</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>63 Inches Electric Standing Desk with Keyboard Tray, Height Adjustable Sit to Stand Table with 2 Drawers, Ergonomic Home Office Desk with Storage Shelf, Computer Table, Black Walnut</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Electric-Adjustable-Furniture-Headphone/dp/B0BRXMFPZ9/ref=sr_1_28?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-28</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Marsail Standing Home Office Desks,Adjustable Heights Stand Up Desks,48x24 Inches Desktop Sit Stand Gaming Computer Desks for Study,Working,Writing,With 4 Memory Presets,Headphone Hook,Cable Organizer</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>$94.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Standing-47-24x23-62-One-Piece-Tabletop/dp/B0DKXTQNNY/ref=sr_1_29?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-29</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Marsail Glass Standing Desk with Drawer, 48x24 inch,Sit Stand Desk with One-Piece Tabletop &amp; USB Charging Ports, Computer Table with Storage for Home &amp; Office White</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>$182.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/VASAGLE-Home-Office-Desks-Greige/dp/B08K2TYFVG/ref=sr_1_30?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-30</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>VASAGLE Computer Desk, Office Desk with 8 Hooks, for Study, Home Office, Easy Assembly, Industrial Design, 55.1 x 23.6 x 29.5 Inches, Greige and Black ULWD059B02</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>$151.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HOMCOM-2-Person-Computer-Bookshelf-Workstation/dp/B08B8H8MCY/ref=sr_1_31?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-31</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>HOMCOM 88" Extra Long 2-Person Computer Desk with Storage Shelves Combo, Double Workstation Storage Study Writing Table for Home Office, Bookshelf, Natural Wood Color</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>$110.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Under-Management-Organizer-Office-Standing/dp/B0BZ3GHM8N/ref=sr_1_32?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-32</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Under Desk Cable Management Tray No Drill, Metal Mesh Cable Management Under Desk with Clamp Mount, 2 Hole Cable Tray with Wire Management and Cord Organizer for Home Office Standing Desk</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>$13.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Electric-Adjustable-Furniture-Headphone/dp/B0CFPSVTG3/ref=sr_1_33?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-33</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Marsail Standing Desk, Adjustable Heights Desk, Stand Up Desk, 40x24 Inches Desktop for Home Office or Gaming Computer use, with 4 Memory Presets, Headphone Hook, Cable Organizer</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>$105.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Convenience-Concepts-Designs2Go-Student-Barnwood/dp/B098BPDV9W/ref=sr_1_34?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-34</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Convenience Concepts Designs2Go No Tools Desk - Home Office Desk with Shelves, Corner Shelf, Vanity Desk, Computer Desk, Nail Table for Nail Tech, 47.25" L x 15.75" W x 30" H, Barnwood/Black</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>$75.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TOPSKY-Electric-Adjustable-Standing-Computer/dp/B08C2LC3H2/ref=sr_1_35?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-35</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>TOPSKY Dual Motor Electric Adjustable Standing for up to 70.8”x31.5” Table Tops, 225 lbs Weight Capacity, Computer Desk for Home and Office (Black Frame only)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>$156.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-40x24-Electric-Standing-Desk/dp/B0F9FHYNC8/ref=sr_1_36?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-36</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Marsail 40x24 Electric Standing Desk - Adjustable Height Computer Desk with Memory Presets, Storage Bag &amp; Cable Management for Home Office &amp; Gaming Workstations</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>$94.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sweetcrispy-Mobile-Small-Standing-Desk/dp/B0DKNHDWYM/ref=sr_1_38?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-38</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Sweetcrispy Mobile Small Standing Desk - Sit Stand Portable Rolling Laptop Desk with Lockable Wheels, Adjustable Height Computer Workstations, White</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>$52.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Athena-Collection-Adjustable-Portable-Workstation/dp/B0D3T2VGCX/ref=sr_1_39?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-39</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Athena Collection Height Adjustable Rolling Desk Mobile Portable Laptop Stand Cart Small Sit Standing Desk Computer Table Workstation for Home Office, Natural</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Convenience-Concepts-Folding-Birch-Black/dp/B08SF8D2CP/ref=sr_1_40?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-40</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Convenience Concepts Xtra Folding Desk 39.5" - Contemporary Office Table, Lightweight Foldable Desk Modern Makeup Vanity &amp; Crafts Table, No Tools Assembly, Easy to Store, Faux Birch/Black</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>$114.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Coaster-Furniture-Contemporary-Home-800108/dp/B00FPGXG8C/ref=sr_1_41?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-41</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Coaster Home Furnishings Tracy Modern Contemporary 55-Inch 2-Drawer Home Office Computer Writing Desk Study Table with File Cabinet Storage Engineered Wood Eco-Friendly Laminate White 800108</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>$329.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Realspace-Mezza-L-Shaped-Computer-Cherry/dp/B00NVSBN7M/ref=sr_1_42?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-42</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Realspace® Mezza 62"W L-Shaped Corner Desk, Cherry/Chrome</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>$163.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAIJI-XX-Large-Foldable-Breakfast-Bookstand/dp/B08T5ZKWCP/ref=sr_1_43?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-43</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SAIJI Folding Bed Desk for Laptop, Eating Breakfast, Writing, Gaming, Extra Large 25.6" x 19.3" Portable Floor Stand Laptop Desk Table for Adult,Kids, Wood Bed Tray Table Lap Desk</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>$55.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/JOY-worker-Standing-Pneumatic-Adjustable/dp/B09Q8YQ93W/ref=sr_1_44?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-44</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>JOY worker Mobile Standing Desk, Height Adjustable Table, 60° Tiltable Rolling Laptop Desk, Portable Sit Stand Desk with Wheels Cup Holder for Bed Couch Hospital, Holds Up to 22lbs, Black</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ECR4Kids-Adjustable-Front-Student-Metal/dp/B01GAAGCYG/ref=sr_1_47?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-47</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ECR4Kids Open Front Desk with Metal Storage Book Box, Adjustable, Classroom Furniture, Oak</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>$73.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Armless-Office-Desk-Chair-Wheels/dp/B0C3TZNYWY/ref=sr_1_48?dib=eyJ2IjoiMSJ9.bWojw3XeatGqc6Xt-yYNdSw4G6ziPz3zU85lcxg5Sl0iYwKoyDoHadV68C49BLoUOYM1gepWAlVL7f4vfOS_ua53VykYhxasE_xYydgA86ylbhMVemktqA_Ei1OjGyLbOIQrD9RgBJXGeMRVfV0D-c9fWc0Goil3TR9Yje7I0r7cAgJ9mjFqi4DHUT5FPJXOMgE-B3bJqg0ARRkwBpR40phL9K1QiVgVZeDVTmF3n22fN54qmyNnDIYDa66UVExg6hnuuCZIvQzcV0t60rX4eMi-MgZcLuizWCQue8yMjUI._j3Blkjg0vpbyYcWJ8iuAaDQdSyBm1pPJVGnUJSSOt4&amp;dib_tag=se&amp;keywords=Desk&amp;qid=1753859035&amp;sr=8-48</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Marsail Armless-Office Desk Chair with Wheels: PU Leather Cross Legged Wide Chair,Comfortable Adjustable Swivel Computer Task Chairs for Home,Office,Make Up,Small Space,Bed Room(Light Beige)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>$81.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/AmazonBasics-Puresoft-PU-Padded-Mid-Back-Computer/dp/B081H3Y5NW/ref=sr_1_1?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Amazon Basics Classic Puresoft PU Padded Mid-Back Height Adjustable Office Computer Desk Chair with Armrest, 26"D x 23.75"W x 42"H, Black</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>$69.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/CAPOT-Ergonomic-Adjustable-Backrest-Headrest/dp/B0D9VPSQM7/ref=sr_1_2?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-2</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ergonomic Mesh Office Chair, Adjustable Lumbar High Back Desk Chair 400lbs, 4D Flip-up Arms, 3-Level Tilt Backrest, 3D Headrest, PU Wheels, Swivel Rolling Computer Seating for Long Desk Work</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>$224.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Office-Chair-Ergonomic-Desk-Adjustable/dp/B09D33BXHL/ref=sr_1_3?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Office Chair Ergonomic Desk Chair, Computer PU Leather Home Office Chair, Swivel Mesh Back Adjustable Lumbar Support Flip-up Arms Executive Task Chair</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>$113.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/COLAMY-Chair-Ergonomic-Computer-Executive-Upgraded/dp/B0C4NG8FSK/ref=sr_1_4?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Executive Office Chair-Ergonomic Computer Desk Chair, High Back Leather Chair with Padded Flip-up Arms, Swivel Home Office Chair Upgraded Caster-Black</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>$141.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Ergonomic-Office-Chair-Adjustable/dp/B0DWDY9VLS/ref=sr_1_5?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Marsail Ergonomic Office Chair: Ergonomic Gaming Chair with 3D Headrest, 3D Lumbar Support, Flip-up Armrests, High Back Adjustable Desk Chair with 90-120° Tilt Lock, Thick Cushion (Black)</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>$124.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HOLLUDLE-Ergonomic-Support-Adjustable-Armrests/dp/B0DGTBNFRP/ref=sr_1_6?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Ergonomic Mesh Office Chair - 3D Adjustable Lumbar Support &amp; 3D Armrests, V-Shaped Back, Adjustable Desk Chair for Office &amp; Home, White</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Armless-Office-Desk-Chair-Wheels/dp/B0C3TZNYWY/ref=sr_1_7?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Marsail Armless-Office Desk Chair with Wheels: PU Leather Cross Legged Wide Chair,Comfortable Adjustable Swivel Computer Task Chairs for Home,Office,Make Up,Small Space,Bed Room(Light Beige)</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>$81.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Basics-Pneumatic-Breathable-Adjustable/dp/B01D7P5BFS/ref=sr_1_8?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Amazon Basics Rolling Desk Chair, Adjustable, Low Back, Padded Seat, Breathable Mesh, Swivel, Black, 21.25" D x 22.5" W x 38" H</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>$49.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/STAPLES-Cartwright-Ergonomic-Adjustable-Support/dp/B0D4NJYSHT/ref=sr_1_9?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Staples Cartwright Ergonomic Office Desk Chair, Adjustable with Breathable Mesh &amp; Lumbar Support, Perfect for Home &amp; Office, Black</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/AmazonBasics-Mid-Back-Office-Chair-Armrests/dp/B00IIFW2L4/ref=sr_1_10?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Amazon Basics Mesh Mid-Back Adjustable-Height 360-Degree Swivel Office Desk Chair with Armrests, Lumbar Support and Easy to Assemble, Black</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>$60.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Serta-43807A-Works-Executive-Black/dp/B07645VL18/ref=sr_1_11?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Serta Bryce Executive Office Chair, Ergonomic Computer DeskChairs with Patented AIR Lumbar Support, Comfy Body Pillows, Height Adjustable, Swivel Base with Wheels, Bonded Leather, Black</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>$193.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HON-Ignition-Mid-Back-Adjustable-Lumbar/dp/B06Y3PGPR2/ref=sr_1_12?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>HON Ignition 2.0 Ergonomic Office Chair, Adjustable Tilt, Swivel Wheels, Comfy for Long Hours, Home Office Desk Chairs, Black</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>$360.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Primy-Ergonomic-Adjustable-Breathable-Conference/dp/B0B41W3455/ref=sr_1_13?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Primy Office Chair Ergonomic Desk Chair with Flip up Armrests Swivel Breathable Desk Mesh Computer Chair with Adjustable Lumbar Support and Height for Conference Room (Black)</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>$78.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Vibration-Reclining-Managerial-Ergonomic-Executive/dp/B0D6VH31C1/ref=sr_1_14?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Massage Office Chair with Foot Rest 6 Points Vibration and Heat Home Office Desk Chairs for Heavy People 400lbs Reclining Managerial Chairs Ergonomic Executive Chair (Black)</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/BERYTH-Adjustable-Leather-Computer-Armless/dp/B0CPHVT1YB/ref=sr_1_15?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Home Office Chair No Arms with Wheels, Adjustable Height Small Desk Chair, PU Leather Mid Back 360 Swivel Computer Chair, Armless Modern Walnut Chair for Office, Reading Meeting Room(Black)</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>$131.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Office-Chair-Ergonomic-Executive-Adjustable/dp/B0CVXKK39F/ref=sr_1_16?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Office Chair - Ergonomic Executive Computer Desk Chairs with Adjustable Flip-up Armrest, Swivel Task Chair with Lumbar Support, Strong Metal Base, PU Leather, White</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>$70.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Steelcase-435A00-Office-Chair-Licorice/dp/B078HG8HWF/ref=sr_1_17?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-17</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Steelcase Series 1 Office Chair - Ergonomic Work Chair with Wheels for Carpet - Helps Support Productivity - Weight-Activated Controls, Back Supports &amp; Arm Support - Easy Assembly - Licorice</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>$569.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Ergonomic-Mid-Back-Adjustable-Executive-Computer/dp/B0BRY78N5V/ref=sr_1_18?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-18</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Office Chair Ergonomic Desk Chair-400lbs Big and Tall Heavy Duty, Wide &amp; Soft 3D Modeling Foam Cushion Home Office Desk Chair with Adjustable Seat Height, Executive Computer Task Chair</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>$136.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Executive-Armrests-Computer-Ergonomic-Breathable/dp/B0DK4R7L68/ref=sr_1_19?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-19</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>400lbs Executive Office Chair with Flip-Up Armrests, Big and Tall Computer Chair for Heavy People, Heavy Duty Ergonomic Comfy Chair, Breathable PU Leather (Pink)</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/WORKPRO-1000-Mid-Back-Chair-Black/dp/B00TOONPA0/ref=sr_1_20?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-20</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>WorkPro® 1000 Series Ergonomic Mesh/Mesh Mid-Back Task Office Chair, Black/Black, BIFMA Compliant</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>$175.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SIHOO-Ergonomic-Armrests-Computer-Adjustable/dp/B0CLLRNFB8/ref=sr_1_21?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-21</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SIHOO Ergonomic Office Chair, Office Chair with Up&amp;Down Lumbar, High Back Home Desk Chair with 3D Armrests, Computer Chair with Adjustable 2D Headrest, Tilt Function Black</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>$157.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/YFO-Ergonomic-Adjustable-Executive-Armrests%EF%BC%8C/dp/B0DQWQTHWR/ref=sr_1_22?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-22</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Home Office Desk Chair High Back Office Rubber Casters Ergonomic Computer Chair with Lumbar Support Adjustable Height Rolling Swivel Chair Executive Task Armrests， Brown Leather</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>$214.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Herman-Miller-Aeron-Loaded-Posture/dp/B01K31X4HG/ref=sr_1_23?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-23</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Herman Miller Aeron Chair Size B Fully Loaded Posture Fit</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>$647.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Ergonomic-Adjustable-Headrest-Armrests-Computer/dp/B0FBRVYHQS/ref=sr_1_24?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-24</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Ergonomic Mesh Office Chair with High Back, Adjustable Headrest, Armrests, and Sponge Lumbar Support, Swivel Rolling Computer Desk Chair for Home Office or Gaming Setup</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>$20 delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Tempur-Pedic-ProTask-Executive-Height-Adjustable-Ergonomic/dp/B0DSR33WHM/ref=sr_1_25?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-25</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Tempur-Pedic ProTask Executive Task Office Chair with Mesh Back and Built-in Lumbar Support, Height-Adjustable Ergonomic Mesh Office Desk Chair, Black</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>$299.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/STAPLES-Ergonomic-Adjustable-Armrest-Support/dp/B07QLHYS8F/ref=sr_1_26?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-26</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>STAPLES Kroy Ergonomic Office Desk Chair, Breathable Mesh Swivel Seat &amp; Back, Adjustable Height, Lumbar Support, Black</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>$259.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Ergonomic-Reclining-Adjustable-Thickened-Executive/dp/B0FFHC8G88/ref=sr_1_27?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-27</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Ergonomic Office Chair 330LBS, Reclining Swivel Mid Back Desk Chair with Adjustable Height, Thickened Cushions, Comfy Executive Armchair for Home Office</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Realspace%C2%AE-Comfort-High-Back-Executive-Compliant/dp/B0BZZ57H52/ref=sr_1_28?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-28</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Realspace® Modern Comfort Verismo Bonded Leather High-Back Executive Office Chair, Black/Chrome, BIFMA Compliant</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>$204.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Realspace%C2%AE-Radano-High-Back-Executive-Compliant/dp/B0CJMMZ86B/ref=sr_1_29?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-29</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Realspace® Radano Mesh High-Back Executive Office Chair, Black, BIFMA Compliant</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>$229.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Realspace%C2%AE-Comfort-High-Back-Executive-Compliant/dp/B0CH1JFDG8/ref=sr_1_30?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-30</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Realspace® Modern Comfort Pizana Bouclé Fabric High-Back Executive Office Chair, Light Sand/Brushed Nickel, BIFMA Compliant</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Ergonomic-Office-Chair-Adjustable/dp/B0CP22DQQS/ref=sr_1_31?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-31</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Marsail Ergonomic Office Chair: Office Computer Desk Chair with High Back Mesh and Adjustable Lumbar Support Rolling Work Swivel Task Chairs with Wheel 3D Armrests and Headrest</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>$128.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Basics-Ergonomic-Adjustable-360-Degree/dp/B00IFHPVEU/ref=sr_1_32?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-32</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Amazon Basics Office Computer Task Desk Chair with Padded Armrests, Mid-Back, Adjustable, 360 Swivel, Rolling, 275 Pound Capacity, 24.2"D x 24"W x 34.8"H, Black Faux Leather</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>$70.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Ergonomic-Office-Chair-Breathable-Adjustable/dp/B0F9DK8FHM/ref=sr_1_33?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-33</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Ergonomic Office Chair - 330Lbs, Breathable Mesh Computer Desk Chair with Lumbar Support &amp; Armrest, Rolling Swivel Adjustable Tilt Lock for Home Office/Gaming, Bedroom Study</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>$59.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sweetcrispy-Computer-Ergonomic-Flip-up-Adjustable/dp/B0CDGJT7Z9/ref=sr_1_34?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-34</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Sweetcrispy Computer Gaming Chair, Ergonomic High Back Heavy Duty Task Desk Office Chairs with Wheels, Flip-up Arms, Adjustable Height, PU Leather, Cream</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>$88.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SertaPedic-Cosset-High-Back-Executive-Chair/dp/B077XGNQWM/ref=sr_1_35?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-35</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SertaPedic Cosset High-Back Executive Chair, Supports Up to 275 Lb, 18.75" to 21.75" Seat Height, Black Seat/Back, Slate Base</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>$483.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Desk-Chair-Computer-Ergonomic-Chair%EF%BC%8CBlack/dp/B0B5XSJT9R/ref=sr_1_36?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-36</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Desk Computer Chair with Wheels Ergonomic Home Office Chair with Lumbar Support and Fixed Armrests, Mid Back Mesh Chair Rolling Swivel Chair，Black</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>$125.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/YFO-Ergonomic-Executive-Armrests-Adjustable/dp/B0DNQF3F5R/ref=sr_1_37?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-37</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Leather Office Ergonomic Home Office Desk Chair, Back Support Swivel Executive Office Chair with Wheels and Flip-Up Armrests, Small Gaming Chair with Adjustable Rocking Function, Black</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>$119.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/WorkPro-Quantum-Ergonomic-Mid-Back-Chair/dp/B00JRE37Z0/ref=sr_1_38?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-38</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>WorkPro® Quantum 9000 Series Ergonomic Mid-Back Mesh/Mesh Chair, Black</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>$459.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Flash-Furniture-Mid-Back-Leather-Executive/dp/B07FYVL48Z/ref=sr_1_39?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-39</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Flash Furniture Whitney Mid-Back Swivel LeatherSoft Desk Chair with Padded Seat and Armrests, Adjustable Height Padded Office Chair, White/Gold</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>$105.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Flash-Furniture-Ergonomic-Flip-up-Certified/dp/B081P7ZKYH/ref=sr_1_40?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-40</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Flash Furniture Porter High-Back Swivel Office Chair with Adjustable Lumbar Support and Height, Ergonomic Mesh Desk Chair with Flip-Up Armrests, White</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>$79.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HON-HVL402-EN11-Managerial-High-Back-Computer/dp/B009BUJU2E/ref=sr_1_41?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-41</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>basyx by HON Managerial Office Chair- High-Back Computer Desk Chair with Loop Arms , Black (VL402)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>$345.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/amseatec-Armrests-Comfortable-Adjustable-Computer/dp/B0DZPDC4P9/ref=sr_1_42?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-42</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Criss Cross Chair with Armrests &amp; Wheels, PU Leather Vanity Chair, Comfortable Adjustable Swivel Computer Office Desk Chairs for Home, Make Up, Bed Room (Cream White)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>$127.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Modway-Articulate-Ergonomic-Office-Chair/dp/B006IY89ZA/ref=sr_1_43?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-43</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Modway EEI-757-BLK Articulate Ergonomic Mesh Office Chair in Black</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>$118.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Marsail-Office-Chair-Ergonomic-Desk-Armrests/dp/B0DNK4YC5Z/ref=sr_1_44?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-44</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Marsail Office Chair Ergonomic-Desk Chair: High Back Mesh Office Chair with Lumbar Support,Flip-Up Armrests&amp;2D Headrest,Gaming Chair with Rocking Tilt, Swivel Computer Task Chair for Long Hours</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>$66.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Staples-Hyken-Technical-Chair-Silver/dp/B07L26Z2QX/ref=sr_1_45?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-45</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>STAPLES Hyken Ergonomic Swivel Task Chair, Adjustable with Breathable Mesh &amp; Lumbar Support, Perfect for Home &amp; Office, Charcoal Gray</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>$139.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/FelixKing-Ergonomic-Adjustable-Computer-Conference/dp/B088H3TB42/ref=sr_1_46?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-46</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>FelixKing Office Chair, Ergonomic Desk Chair with Adjustable Height and Lumbar Support Swivel Lumbar Support Desk Computer Chair with Flip up Armrests for Conference Room (Black)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>$88.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Vinsetto-Executive-Office-Computer-Adjustable/dp/B0DRB65B6W/ref=sr_1_47?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-47</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Vinsetto High Back Big and Tall Executive Office Chair 485lbs with Wide Seat, Computer Desk Chair with Linen Fabric, Adjustable Height, Swivel Wheels, Cream White</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>$115.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Office-Computer-Height-Adjustable-HVST141/dp/B074SRKX9H/ref=sr_1_48?dib=eyJ2IjoiMSJ9.WwMweMnR-30V-oZIBYVj01aAvBawm0apkKTvOpQU8NBrfSPbye-lEANGG6b2IKMa2HrV2qhy6jIWkTIptKeXGEG1IblJ5IEDW2yHMBnGaQFGndMAJKBh_wWSAwOyyb3302XbHczagmQwh1uxCPw1_FwvqE-GuiWMATff2zB95s5L2hyc6hgvuJiTNewvESpGWo3appnz-UdvEp7oywSrCMiTgMvbrvb7u4CxuYfv4uGZzostQy3dy9DL5pav3mbSW_HoP2l6kZWOSJ9m8PZIz8iJmFFndPLA1FBFUFsME3A.QkTdlvR2H55SQyx9eNzN3lzlUT6vB_tcDYaEbXQeZ1E&amp;dib_tag=se&amp;keywords=Office+chair&amp;qid=1753859047&amp;sr=8-48</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>HON Sadie Big and Tall Office Chair, Ergonomic Chair with Mesh Back, Lumbar Support, Home Office Desk Chairs, 350 lb Max, Black</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
